--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124143a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124143a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.432556240025508</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.37738831238657</v>
+      </c>
+      <c r="C5">
+        <v>1.450017400805485</v>
+      </c>
+      <c r="D5">
+        <v>1.500825747438323</v>
+      </c>
+      <c r="E5">
+        <v>3.508586468060406</v>
+      </c>
+      <c r="F5">
+        <v>2.356601093214059</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.37738831238657</v>
+        <v>9.21394459335011</v>
       </c>
       <c r="C6">
-        <v>1.450017400805485</v>
+        <v>9.222093540640033</v>
       </c>
       <c r="D6">
-        <v>1.500825747438323</v>
+        <v>8.912425770630477</v>
       </c>
       <c r="E6">
-        <v>3.508586468060406</v>
+        <v>25.19708384170325</v>
       </c>
       <c r="F6">
-        <v>2.356601093214059</v>
+        <v>14.2146310528835</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>9.21394459335011</v>
+        <v>3.755766697963424</v>
       </c>
       <c r="C7">
-        <v>9.222093540640033</v>
+        <v>4.118794334402875</v>
       </c>
       <c r="D7">
-        <v>8.912425770630477</v>
+        <v>4.172238225095976</v>
       </c>
       <c r="E7">
-        <v>25.19708384170325</v>
+        <v>6.945449702916183</v>
       </c>
       <c r="F7">
-        <v>14.2146310528835</v>
+        <v>4.831941725442934</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>10.5709622569063</v>
+      </c>
+      <c r="C8">
+        <v>11.05414371964931</v>
+      </c>
+      <c r="D8">
+        <v>11.51905329742847</v>
+      </c>
+      <c r="E8">
+        <v>33.30592481719965</v>
+      </c>
+      <c r="F8">
+        <v>16.66589915445935</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>3.755766697963424</v>
+        <v>12.36559798347243</v>
       </c>
       <c r="C9">
-        <v>4.118794334402875</v>
+        <v>13.9206214439942</v>
       </c>
       <c r="D9">
-        <v>4.172238225095976</v>
+        <v>14.32103985464141</v>
       </c>
       <c r="E9">
-        <v>6.945449702916183</v>
+        <v>37.2929928950972</v>
       </c>
       <c r="F9">
-        <v>4.831941725442934</v>
+        <v>25.59862046531851</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>10.5709622569063</v>
+        <v>8.902114445508872</v>
       </c>
       <c r="C10">
-        <v>11.05414371964931</v>
+        <v>8.870036115168066</v>
       </c>
       <c r="D10">
-        <v>11.51905329742847</v>
+        <v>9.448760592892032</v>
       </c>
       <c r="E10">
-        <v>33.30592481719965</v>
+        <v>17.03968558488114</v>
       </c>
       <c r="F10">
-        <v>16.66589915445935</v>
+        <v>14.30879624547721</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>12.36559798347243</v>
+        <v>16.30986814461272</v>
       </c>
       <c r="C11">
-        <v>13.9206214439942</v>
+        <v>17.18136249563726</v>
       </c>
       <c r="D11">
-        <v>14.32103985464141</v>
+        <v>17.84443893486453</v>
       </c>
       <c r="E11">
-        <v>37.2929928950972</v>
+        <v>34.95868686300113</v>
       </c>
       <c r="F11">
-        <v>25.59862046531851</v>
+        <v>23.41891981739305</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>8.902114445508872</v>
+        <v>4.96855767699383</v>
       </c>
       <c r="C12">
-        <v>8.870036115168066</v>
+        <v>5.794912956252269</v>
       </c>
       <c r="D12">
-        <v>9.448760592892032</v>
+        <v>5.895657481592608</v>
       </c>
       <c r="E12">
-        <v>17.03968558488114</v>
+        <v>8.295477607327593</v>
       </c>
       <c r="F12">
-        <v>14.30879624547721</v>
+        <v>5.554094033131826</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>16.30986814461272</v>
+        <v>19.02115427432114</v>
       </c>
       <c r="C13">
-        <v>17.18136249563726</v>
+        <v>16.04871243281705</v>
       </c>
       <c r="D13">
-        <v>17.84443893486453</v>
+        <v>17.8230277401838</v>
       </c>
       <c r="E13">
-        <v>34.95868686300113</v>
+        <v>23.4106022831014</v>
       </c>
       <c r="F13">
-        <v>23.41891981739305</v>
+        <v>27.6653862198969</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4.96855767699383</v>
+        <v>14.60578706437815</v>
       </c>
       <c r="C14">
-        <v>5.794912956252269</v>
+        <v>17.65135747701747</v>
       </c>
       <c r="D14">
-        <v>5.895657481592608</v>
+        <v>17.74033600464769</v>
       </c>
       <c r="E14">
-        <v>8.295477607327593</v>
+        <v>34.58002549859804</v>
       </c>
       <c r="F14">
-        <v>5.554094033131826</v>
+        <v>24.80204373025633</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>19.02115427432114</v>
+        <v>2.724880411166274</v>
       </c>
       <c r="C15">
-        <v>16.04871243281705</v>
+        <v>2.729758588566876</v>
       </c>
       <c r="D15">
-        <v>17.8230277401838</v>
+        <v>2.944094933938369</v>
       </c>
       <c r="E15">
-        <v>23.4106022831014</v>
+        <v>5.00804928417931</v>
       </c>
       <c r="F15">
-        <v>27.6653862198969</v>
+        <v>4.280940553164172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>14.60578706437815</v>
+        <v>16.35295807862486</v>
       </c>
       <c r="C16">
-        <v>17.65135747701747</v>
+        <v>15.73116037285659</v>
       </c>
       <c r="D16">
-        <v>17.74033600464769</v>
+        <v>17.48220514532983</v>
       </c>
       <c r="E16">
-        <v>34.58002549859804</v>
+        <v>24.6390020590986</v>
       </c>
       <c r="F16">
-        <v>24.80204373025633</v>
+        <v>21.68768992328544</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>2.724880411166274</v>
+        <v>10.83566281015835</v>
       </c>
       <c r="C17">
-        <v>2.729758588566876</v>
+        <v>11.61471939692511</v>
       </c>
       <c r="D17">
-        <v>2.944094933938369</v>
+        <v>11.47294750415082</v>
       </c>
       <c r="E17">
-        <v>5.00804928417931</v>
+        <v>23.09325503584595</v>
       </c>
       <c r="F17">
-        <v>4.280940553164172</v>
+        <v>19.50264682863465</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>16.35295807862486</v>
+        <v>3.752818469148282</v>
       </c>
       <c r="C18">
-        <v>15.73116037285659</v>
+        <v>3.934225213119048</v>
       </c>
       <c r="D18">
-        <v>17.48220514532983</v>
+        <v>4.241883525745965</v>
       </c>
       <c r="E18">
-        <v>24.6390020590986</v>
+        <v>9.086925672693038</v>
       </c>
       <c r="F18">
-        <v>21.68768992328544</v>
+        <v>6.412748190404757</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>10.83566281015835</v>
+        <v>7.82489793573504</v>
       </c>
       <c r="C19">
-        <v>11.61471939692511</v>
+        <v>8.327831391047262</v>
       </c>
       <c r="D19">
-        <v>11.47294750415082</v>
+        <v>9.108105181157766</v>
       </c>
       <c r="E19">
-        <v>23.09325503584595</v>
+        <v>16.84213460989895</v>
       </c>
       <c r="F19">
-        <v>19.50264682863465</v>
+        <v>13.65850996492123</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>3.752818469148282</v>
+        <v>11.80634387356761</v>
       </c>
       <c r="C20">
-        <v>3.934225213119048</v>
+        <v>9.936490729075617</v>
       </c>
       <c r="D20">
-        <v>4.241883525745965</v>
+        <v>10.50420298482458</v>
       </c>
       <c r="E20">
-        <v>9.086925672693038</v>
+        <v>20.22146927038869</v>
       </c>
       <c r="F20">
-        <v>6.412748190404757</v>
+        <v>20.70016342986661</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>7.82489793573504</v>
+        <v>5.036243846563104</v>
       </c>
       <c r="C21">
-        <v>8.327831391047262</v>
+        <v>6.130655068180593</v>
       </c>
       <c r="D21">
-        <v>9.108105181157766</v>
+        <v>6.102004368076295</v>
       </c>
       <c r="E21">
-        <v>16.84213460989895</v>
+        <v>10.61093054449223</v>
       </c>
       <c r="F21">
-        <v>13.65850996492123</v>
+        <v>6.609923656363916</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>11.80634387356761</v>
+        <v>9.168633113935989</v>
       </c>
       <c r="C22">
-        <v>9.936490729075617</v>
+        <v>9.632482845066614</v>
       </c>
       <c r="D22">
-        <v>10.50420298482458</v>
+        <v>11.32701851162003</v>
       </c>
       <c r="E22">
-        <v>20.22146927038869</v>
+        <v>28.45303633626457</v>
       </c>
       <c r="F22">
-        <v>20.70016342986661</v>
+        <v>15.93576327261124</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>5.036243846563104</v>
+        <v>7.344931518745458</v>
       </c>
       <c r="C23">
-        <v>6.130655068180593</v>
+        <v>10.38920305785273</v>
       </c>
       <c r="D23">
-        <v>6.102004368076295</v>
+        <v>12.02424516596436</v>
       </c>
       <c r="E23">
-        <v>10.61093054449223</v>
+        <v>18.14017334541065</v>
       </c>
       <c r="F23">
-        <v>6.609923656363916</v>
+        <v>11.00012794759381</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>9.168633113935989</v>
+        <v>4.461286882538914</v>
       </c>
       <c r="C24">
-        <v>9.632482845066614</v>
+        <v>4.45853426686404</v>
       </c>
       <c r="D24">
-        <v>11.32701851162003</v>
+        <v>4.74828571325277</v>
       </c>
       <c r="E24">
-        <v>28.45303633626457</v>
+        <v>8.300690183542214</v>
       </c>
       <c r="F24">
-        <v>15.93576327261124</v>
+        <v>7.586416549612988</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>7.344931518745458</v>
+        <v>2.408081055518748</v>
       </c>
       <c r="C25">
-        <v>10.38920305785273</v>
+        <v>2.570400345810683</v>
       </c>
       <c r="D25">
-        <v>12.02424516596436</v>
+        <v>2.640750488352833</v>
       </c>
       <c r="E25">
-        <v>18.14017334541065</v>
+        <v>6.98494779660136</v>
       </c>
       <c r="F25">
-        <v>11.00012794759381</v>
+        <v>4.340013399858765</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>4.461286882538914</v>
+        <v>4.326741569547564</v>
       </c>
       <c r="C26">
-        <v>4.45853426686404</v>
+        <v>4.653133325842909</v>
       </c>
       <c r="D26">
-        <v>4.74828571325277</v>
+        <v>4.90517980286651</v>
       </c>
       <c r="E26">
-        <v>8.300690183542214</v>
+        <v>12.9445839169576</v>
       </c>
       <c r="F26">
-        <v>7.586416549612988</v>
+        <v>8.454752215624589</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.408081055518748</v>
+        <v>8.563135502958145</v>
       </c>
       <c r="C27">
-        <v>2.570400345810683</v>
+        <v>9.327257163372257</v>
       </c>
       <c r="D27">
-        <v>2.640750488352833</v>
+        <v>10.0337820331733</v>
       </c>
       <c r="E27">
-        <v>6.98494779660136</v>
+        <v>21.95719056759687</v>
       </c>
       <c r="F27">
-        <v>4.340013399858765</v>
+        <v>14.6658702173141</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.326741569547564</v>
+        <v>4.763226747095959</v>
       </c>
       <c r="C28">
-        <v>4.653133325842909</v>
+        <v>4.971783549980848</v>
       </c>
       <c r="D28">
-        <v>4.90517980286651</v>
+        <v>5.029168254346997</v>
       </c>
       <c r="E28">
-        <v>12.9445839169576</v>
+        <v>14.14996115827072</v>
       </c>
       <c r="F28">
-        <v>8.454752215624589</v>
+        <v>8.463186690885165</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>8.563135502958145</v>
+        <v>3.548274894645624</v>
       </c>
       <c r="C29">
-        <v>9.327257163372257</v>
+        <v>3.782138589943469</v>
       </c>
       <c r="D29">
-        <v>10.0337820331733</v>
+        <v>3.890700421907048</v>
       </c>
       <c r="E29">
-        <v>21.95719056759687</v>
+        <v>9.934558063463975</v>
       </c>
       <c r="F29">
-        <v>14.6658702173141</v>
+        <v>6.451809918025146</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.763226747095959</v>
+        <v>3.516994114737189</v>
       </c>
       <c r="C30">
-        <v>4.971783549980848</v>
+        <v>3.800181761280927</v>
       </c>
       <c r="D30">
-        <v>5.029168254346997</v>
+        <v>3.886559374601623</v>
       </c>
       <c r="E30">
-        <v>14.14996115827072</v>
+        <v>11.7871322981134</v>
       </c>
       <c r="F30">
-        <v>8.463186690885165</v>
+        <v>6.446317616347809</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>3.548274894645624</v>
+        <v>5.392046562474387</v>
       </c>
       <c r="C31">
-        <v>3.782138589943469</v>
+        <v>5.717452045242669</v>
       </c>
       <c r="D31">
-        <v>3.890700421907048</v>
+        <v>5.685455524878702</v>
       </c>
       <c r="E31">
-        <v>9.934558063463975</v>
+        <v>17.13767096675458</v>
       </c>
       <c r="F31">
-        <v>6.451809918025146</v>
+        <v>10.30920807553923</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>3.516994114737189</v>
+        <v>14.72663557110378</v>
       </c>
       <c r="C32">
-        <v>3.800181761280927</v>
+        <v>15.97475921096847</v>
       </c>
       <c r="D32">
-        <v>3.886559374601623</v>
+        <v>16.3357199146971</v>
       </c>
       <c r="E32">
-        <v>11.7871322981134</v>
+        <v>58.54899679790991</v>
       </c>
       <c r="F32">
-        <v>6.446317616347809</v>
+        <v>24.58844250197568</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>5.392046562474387</v>
+        <v>4.299697990040326</v>
       </c>
       <c r="C33">
-        <v>5.717452045242669</v>
+        <v>4.80330725190095</v>
       </c>
       <c r="D33">
-        <v>5.685455524878702</v>
+        <v>5.055412562870565</v>
       </c>
       <c r="E33">
-        <v>17.13767096675458</v>
+        <v>15.45568926235516</v>
       </c>
       <c r="F33">
-        <v>10.30920807553923</v>
+        <v>7.664990383984424</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>14.72663557110378</v>
+        <v>3.942217668586689</v>
       </c>
       <c r="C34">
-        <v>15.97475921096847</v>
+        <v>4.218891400363403</v>
       </c>
       <c r="D34">
-        <v>16.3357199146971</v>
+        <v>4.247181521711766</v>
       </c>
       <c r="E34">
-        <v>58.54899679790991</v>
+        <v>10.33204464071736</v>
       </c>
       <c r="F34">
-        <v>24.58844250197568</v>
+        <v>6.73148416012129</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>4.299697990040326</v>
+        <v>13.19192602457822</v>
       </c>
       <c r="C35">
-        <v>4.80330725190095</v>
+        <v>14.03482003804962</v>
       </c>
       <c r="D35">
-        <v>5.055412562870565</v>
+        <v>13.76264967549292</v>
       </c>
       <c r="E35">
-        <v>15.45568926235516</v>
+        <v>28.59730831784884</v>
       </c>
       <c r="F35">
-        <v>7.664990383984424</v>
+        <v>18.09551305308375</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3.942217668586689</v>
+        <v>9.467233031129078</v>
       </c>
       <c r="C36">
-        <v>4.218891400363403</v>
+        <v>10.09805229617359</v>
       </c>
       <c r="D36">
-        <v>4.247181521711766</v>
+        <v>10.23606149606001</v>
       </c>
       <c r="E36">
-        <v>10.33204464071736</v>
+        <v>30.76433474273612</v>
       </c>
       <c r="F36">
-        <v>6.73148416012129</v>
+        <v>18.92542751369476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>13.19192602457822</v>
+        <v>6.423255527756911</v>
       </c>
       <c r="C37">
-        <v>14.03482003804962</v>
+        <v>6.944896570089081</v>
       </c>
       <c r="D37">
-        <v>13.76264967549292</v>
+        <v>6.853645167828738</v>
       </c>
       <c r="E37">
-        <v>28.59730831784884</v>
+        <v>18.84770637597864</v>
       </c>
       <c r="F37">
-        <v>18.09551305308375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>9.467233031129078</v>
-      </c>
-      <c r="C38">
-        <v>10.09805229617359</v>
-      </c>
-      <c r="D38">
-        <v>10.23606149606001</v>
-      </c>
-      <c r="E38">
-        <v>30.76433474273612</v>
-      </c>
-      <c r="F38">
-        <v>18.92542751369476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>6.423255527756911</v>
-      </c>
-      <c r="C39">
-        <v>6.944896570089081</v>
-      </c>
-      <c r="D39">
-        <v>6.853645167828738</v>
-      </c>
-      <c r="E39">
-        <v>18.84770637597864</v>
-      </c>
-      <c r="F39">
         <v>11.71646109763411</v>
       </c>
     </row>
